--- a/data_year/zb/公共管理、社会保障及其他/工伤保险.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/工伤保险.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,100 +508,154 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14.3208</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.0882</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.6896</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.2308</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.7087</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.1115</v>
+      </c>
+      <c r="H2" t="n">
+        <v>74.1456</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.6807</v>
+      </c>
       <c r="J2" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>147.4509</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.1112</v>
+      </c>
       <c r="L2" t="n">
-        <v>13.7973</v>
+        <v>192.4028</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7778</v>
+        <v>284.9453</v>
       </c>
       <c r="N2" t="n">
-        <v>4350.2744</v>
+        <v>16160.7122</v>
       </c>
       <c r="O2" t="n">
-        <v>57.8542</v>
+        <v>561.4429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.4502</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.6221</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.1406</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.7101</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.3715</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.4162</v>
+      </c>
+      <c r="H3" t="n">
+        <v>79.4472</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.4683</v>
+      </c>
       <c r="J3" t="n">
-        <v>18.7086</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>163.0105</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.216699999999999</v>
+      </c>
       <c r="L3" t="n">
-        <v>16.4929</v>
+        <v>286.3816</v>
       </c>
       <c r="M3" t="n">
-        <v>28.2839</v>
+        <v>466.4359</v>
       </c>
       <c r="N3" t="n">
-        <v>4345.3489</v>
+        <v>17695.9436</v>
       </c>
       <c r="O3" t="n">
-        <v>68.8926</v>
+        <v>742.5608999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18.6018</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.5701</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.5355</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.9376</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.212199999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5021</v>
+      </c>
+      <c r="H4" t="n">
+        <v>86.0295</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.6134</v>
+      </c>
       <c r="J4" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>190.5114</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.6232</v>
+      </c>
       <c r="L4" t="n">
-        <v>19.8919</v>
+        <v>406.2852</v>
       </c>
       <c r="M4" t="n">
-        <v>32.0315</v>
+        <v>526.7163</v>
       </c>
       <c r="N4" t="n">
-        <v>4405.6</v>
+        <v>19010.0989</v>
       </c>
       <c r="O4" t="n">
-        <v>81.0812</v>
+        <v>861.9363</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -613,26 +667,26 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>32.9</v>
+        <v>195.1522</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>27.1</v>
+        <v>482.1049</v>
       </c>
       <c r="M5" t="n">
-        <v>37.6</v>
+        <v>614.7748</v>
       </c>
       <c r="N5" t="n">
-        <v>4574.8</v>
+        <v>19917.2415</v>
       </c>
       <c r="O5" t="n">
-        <v>91.2</v>
+        <v>996.2162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -644,26 +698,26 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>51.8808</v>
+        <v>198.1508</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>33.3</v>
+        <v>560.486</v>
       </c>
       <c r="M6" t="n">
-        <v>58.3</v>
+        <v>694.77</v>
       </c>
       <c r="N6" t="n">
-        <v>6845.1673</v>
+        <v>20639.1566</v>
       </c>
       <c r="O6" t="n">
-        <v>118.6</v>
+        <v>1128.7969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -675,26 +729,26 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>65.09999999999999</v>
+        <v>201.8645</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.5</v>
+        <v>598.7225</v>
       </c>
       <c r="M7" t="n">
-        <v>92.5</v>
+        <v>754.2023</v>
       </c>
       <c r="N7" t="n">
-        <v>8478</v>
+        <v>21432.4804</v>
       </c>
       <c r="O7" t="n">
-        <v>163.5</v>
+        <v>1285.2769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -706,563 +760,199 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>77.8</v>
+        <v>195.9958</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>68.4909</v>
+        <v>610.2902</v>
       </c>
       <c r="M8" t="n">
-        <v>121.8228</v>
+        <v>736.8505</v>
       </c>
       <c r="N8" t="n">
-        <v>10268.5</v>
+        <v>21889.2992</v>
       </c>
       <c r="O8" t="n">
-        <v>192.8951</v>
+        <v>1410.8823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.9625</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0674</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22.5362</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7235</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.2637</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8448</v>
-      </c>
-      <c r="H9" t="n">
-        <v>40.8999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9639</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>95.98999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.5996</v>
-      </c>
+        <v>192.8328</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>87.90000000000001</v>
+        <v>662.2803</v>
       </c>
       <c r="M9" t="n">
-        <v>165.6</v>
+        <v>853.7695</v>
       </c>
       <c r="N9" t="n">
-        <v>12173.3</v>
+        <v>22723.6998</v>
       </c>
       <c r="O9" t="n">
-        <v>262.6</v>
+        <v>1606.9241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>12.4143</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0155</v>
-      </c>
-      <c r="D10" t="n">
-        <v>27.695</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9357</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.9055</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8353</v>
-      </c>
-      <c r="H10" t="n">
-        <v>55.1292</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.5083</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>117.7684</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.2948</v>
-      </c>
+        <v>198.5012</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>126.9</v>
+        <v>741.9817</v>
       </c>
       <c r="M10" t="n">
-        <v>216.7</v>
+        <v>913.0091</v>
       </c>
       <c r="N10" t="n">
-        <v>13787.2324</v>
+        <v>23874.3621</v>
       </c>
       <c r="O10" t="n">
-        <v>384.605</v>
+        <v>1784.9184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12.2102</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.9027</v>
-      </c>
-      <c r="D11" t="n">
-        <v>29.2587</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.0849</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6.3745</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.0398</v>
-      </c>
-      <c r="H11" t="n">
-        <v>62.9948</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.1457</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>129.5744</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.1731</v>
-      </c>
+        <v>194.3776</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>155.6763</v>
+        <v>816.8532</v>
       </c>
       <c r="M11" t="n">
-        <v>240.1166</v>
+        <v>819.4455</v>
       </c>
       <c r="N11" t="n">
-        <v>14895.5111</v>
+        <v>25478.3634</v>
       </c>
       <c r="O11" t="n">
-        <v>468.7791</v>
+        <v>1783.1949</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.3208</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.0882</v>
-      </c>
-      <c r="D12" t="n">
-        <v>32.6896</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.2308</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6.7087</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.1115</v>
-      </c>
-      <c r="H12" t="n">
-        <v>74.1456</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.6807</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>147.4509</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.1112</v>
-      </c>
+        <v>187.5999</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>192.4028</v>
+        <v>820.2802</v>
       </c>
       <c r="M12" t="n">
-        <v>284.9453</v>
+        <v>486.2772</v>
       </c>
       <c r="N12" t="n">
-        <v>16160.7122</v>
+        <v>26763.4146</v>
       </c>
       <c r="O12" t="n">
-        <v>561.4429</v>
+        <v>1449.3071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.4502</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.6221</v>
-      </c>
-      <c r="D13" t="n">
-        <v>38.1406</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.7101</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7.3715</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.4162</v>
-      </c>
-      <c r="H13" t="n">
-        <v>79.4472</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.4683</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>163.0105</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.216699999999999</v>
-      </c>
+        <v>206.2417</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>286.3816</v>
+        <v>990.17</v>
       </c>
       <c r="M13" t="n">
-        <v>466.4359</v>
+        <v>951.9136</v>
       </c>
       <c r="N13" t="n">
-        <v>17695.9436</v>
+        <v>28286.506</v>
       </c>
       <c r="O13" t="n">
-        <v>742.5608999999999</v>
+        <v>1411.2496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>18.6018</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.5701</v>
-      </c>
-      <c r="D14" t="n">
-        <v>49.5355</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.9376</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.212199999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.5021</v>
-      </c>
-      <c r="H14" t="n">
-        <v>86.0295</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.6134</v>
-      </c>
-      <c r="J14" t="n">
-        <v>190.5114</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.6232</v>
-      </c>
-      <c r="L14" t="n">
-        <v>406.2852</v>
-      </c>
-      <c r="M14" t="n">
-        <v>526.7163</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>19010.0989</v>
-      </c>
-      <c r="O14" t="n">
-        <v>861.9363</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>195.1522</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>482.1049</v>
-      </c>
-      <c r="M15" t="n">
-        <v>614.7748</v>
-      </c>
-      <c r="N15" t="n">
-        <v>19917.2415</v>
-      </c>
-      <c r="O15" t="n">
-        <v>996.2162</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>198.1508</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>560.486</v>
-      </c>
-      <c r="M16" t="n">
-        <v>694.77</v>
-      </c>
-      <c r="N16" t="n">
-        <v>20639.1566</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1128.7969</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>201.8645</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>598.7225</v>
-      </c>
-      <c r="M17" t="n">
-        <v>754.2023</v>
-      </c>
-      <c r="N17" t="n">
-        <v>21432.4804</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1285.2769</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>195.9958</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>610.2902</v>
-      </c>
-      <c r="M18" t="n">
-        <v>736.8505</v>
-      </c>
-      <c r="N18" t="n">
-        <v>21889.2992</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1410.8823</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>192.8328</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>662.2803</v>
-      </c>
-      <c r="M19" t="n">
-        <v>853.7695</v>
-      </c>
-      <c r="N19" t="n">
-        <v>22723.6998</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1606.9241</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>198.5012</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>741.9817</v>
-      </c>
-      <c r="M20" t="n">
-        <v>913.0091</v>
-      </c>
-      <c r="N20" t="n">
-        <v>23874.3621</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1784.9184</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>194.3776</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>816.8532</v>
-      </c>
-      <c r="M21" t="n">
-        <v>819.4455</v>
-      </c>
-      <c r="N21" t="n">
-        <v>25478.3634</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1783.1949</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>187.5999</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>820.2802</v>
-      </c>
-      <c r="M22" t="n">
-        <v>486.2772</v>
-      </c>
-      <c r="N22" t="n">
-        <v>26763.4146</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1449.3071</v>
-      </c>
+        <v>29111</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
